--- a/SuggestedLists/eSituation.09 and eSituation.10 - Symptoms.xlsx
+++ b/SuggestedLists/eSituation.09 and eSituation.10 - Symptoms.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20350"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Users\cmann\DAILY FILES\GRANTS\NEMSIS\V3\V3_5_0\Suggested Lists\Refined Suggested Lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Users\jehlers\v3 Suggested Lists\Final Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74F9CDC6-386C-4927-B2CE-95064FE2BCB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recommendation" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="398">
   <si>
     <t>Tenderness</t>
   </si>
@@ -1145,13 +1146,19 @@
     <t>FREQUENCY</t>
   </si>
   <si>
-    <t>Revised Draft Suggested List (eSituation.09 and .10: Primary and Other Associated Symptoms)</t>
-  </si>
-  <si>
-    <t>Record Date Range Evaluated: 01/01/2017 through 06/24/2019</t>
-  </si>
-  <si>
-    <t>NOTES</t>
+    <t>Date range: 01/01/2017 through 06/24/2019</t>
+  </si>
+  <si>
+    <t>Choking</t>
+  </si>
+  <si>
+    <t>T17</t>
+  </si>
+  <si>
+    <t>Foreign body in respiratory tract</t>
+  </si>
+  <si>
+    <t>Includes R22.9 Localized swelling, mass and lump, unspecified</t>
   </si>
   <si>
     <t>Includes F10.92 Alcohol use, unspecified with intoxication, F10.98 and F10.988</t>
@@ -1196,19 +1203,32 @@
     <t>Includes R46 Symptoms and signs involving appearance and behavior</t>
   </si>
   <si>
-    <t>includes R22.9 Localized swelling, mass and lump, unspecified</t>
+    <t>Abuse/Neglect NOS, suspected</t>
+  </si>
+  <si>
+    <t>T76</t>
+  </si>
+  <si>
+    <t>Added in response to request 08/2019 Jira NEMPUB-284</t>
+  </si>
+  <si>
+    <t>Adult and child abuse, neglect and other maltreatment, suspected</t>
+  </si>
+  <si>
+    <t>Addition in response to J. Legler request 8/2019 Jira NEMPUB-282</t>
+  </si>
+  <si>
+    <t>eSituation.09 and .10: Primary and Other Associated Symptoms Suggested List</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000%"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1268,29 +1288,7 @@
     </font>
     <font>
       <b/>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1341,11 +1339,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1416,45 +1413,39 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1732,58 +1723,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H146"/>
+  <dimension ref="A1:H148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="G142" sqref="G142"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="36.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="65.21875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="51" customWidth="1"/>
+    <col min="1" max="1" width="29" style="11" customWidth="1"/>
+    <col min="2" max="2" width="28.81640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" style="2"/>
+    <col min="4" max="4" width="75.54296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" style="47" customWidth="1"/>
     <col min="6" max="6" width="11" style="2" customWidth="1"/>
-    <col min="7" max="7" width="67.44140625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="7" max="7" width="67.453125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
-        <v>373</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="43"/>
+    <row r="1" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="52" t="s">
+        <v>397</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
       <c r="F1" s="29"/>
       <c r="G1" s="29"/>
     </row>
-    <row r="2" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="B2" s="13"/>
       <c r="C2" s="31"/>
       <c r="D2" s="16"/>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="40" t="s">
         <v>147</v>
       </c>
       <c r="F2" s="5"/>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="42" t="s">
-        <v>374</v>
+      <c r="B3" s="13" t="s">
+        <v>373</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="41">
         <v>37063795</v>
       </c>
       <c r="F3" s="5"/>
@@ -1797,7 +1788,7 @@
       <c r="D4" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="42">
         <v>7153402</v>
       </c>
       <c r="F4" s="5"/>
@@ -1809,7 +1800,7 @@
       <c r="D5" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="42">
         <v>3693525</v>
       </c>
       <c r="F5" s="5"/>
@@ -1818,7 +1809,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="13"/>
       <c r="C6" s="1"/>
-      <c r="E6" s="47">
+      <c r="E6" s="43">
         <f>E3-E4-E5</f>
         <v>26216868</v>
       </c>
@@ -1837,14 +1828,11 @@
       <c r="D7" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="44" t="s">
         <v>371</v>
       </c>
       <c r="F7" s="36" t="s">
         <v>372</v>
-      </c>
-      <c r="G7" s="53" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1860,7 +1848,7 @@
       <c r="D8" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="45">
         <v>121771</v>
       </c>
       <c r="F8" s="10">
@@ -1879,7 +1867,7 @@
       <c r="D9" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="45">
         <v>435347</v>
       </c>
       <c r="F9" s="10">
@@ -1898,7 +1886,7 @@
       <c r="D10" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="45">
         <v>88761</v>
       </c>
       <c r="F10" s="10">
@@ -1917,7 +1905,7 @@
       <c r="D11" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="45">
         <v>277140</v>
       </c>
       <c r="F11" s="10">
@@ -1936,7 +1924,7 @@
       <c r="D12" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="45">
         <v>106332</v>
       </c>
       <c r="F12" s="10">
@@ -1955,7 +1943,7 @@
       <c r="D13" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="49">
+      <c r="E13" s="45">
         <v>43432</v>
       </c>
       <c r="F13" s="10">
@@ -1968,7 +1956,7 @@
       <c r="B14" s="20"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
-      <c r="E14" s="50"/>
+      <c r="E14" s="46"/>
       <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1984,7 +1972,7 @@
       <c r="D15" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E15" s="45">
         <v>10233</v>
       </c>
       <c r="F15" s="10">
@@ -2003,7 +1991,7 @@
       <c r="D16" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="45">
         <f>70295+87215</f>
         <v>157510</v>
       </c>
@@ -2012,7 +2000,7 @@
         <v>6.0079640329271976E-3</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -2026,7 +2014,7 @@
       <c r="D17" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="45">
         <v>26233</v>
       </c>
       <c r="F17" s="10">
@@ -2045,7 +2033,7 @@
       <c r="D18" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="E18" s="49">
+      <c r="E18" s="45">
         <v>11922</v>
       </c>
       <c r="F18" s="10">
@@ -2064,7 +2052,7 @@
       <c r="D19" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="E19" s="49">
+      <c r="E19" s="45">
         <v>10168</v>
       </c>
       <c r="F19" s="10">
@@ -2077,7 +2065,7 @@
       <c r="B20" s="20"/>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
-      <c r="E20" s="50"/>
+      <c r="E20" s="46"/>
       <c r="F20" s="22"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -2093,7 +2081,7 @@
       <c r="D21" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="E21" s="49">
+      <c r="E21" s="45">
         <v>18267</v>
       </c>
       <c r="F21" s="10">
@@ -2112,7 +2100,7 @@
       <c r="D22" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E22" s="49">
+      <c r="E22" s="45">
         <v>30969</v>
       </c>
       <c r="F22" s="10">
@@ -2131,7 +2119,7 @@
       <c r="D23" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E23" s="49">
+      <c r="E23" s="45">
         <v>19360</v>
       </c>
       <c r="F23" s="10">
@@ -2150,7 +2138,7 @@
       <c r="D24" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="E24" s="49">
+      <c r="E24" s="45">
         <f>110025+24351</f>
         <v>134376</v>
       </c>
@@ -2159,7 +2147,7 @@
         <v>5.1255550434170854E-3</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -2173,7 +2161,7 @@
       <c r="D25" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="E25" s="49">
+      <c r="E25" s="45">
         <v>51078</v>
       </c>
       <c r="F25" s="10">
@@ -2192,7 +2180,7 @@
       <c r="D26" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E26" s="49">
+      <c r="E26" s="45">
         <f>39359+6484</f>
         <v>45843</v>
       </c>
@@ -2201,7 +2189,7 @@
         <v>1.7486070418480193E-3</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -2215,7 +2203,7 @@
       <c r="D27" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="E27" s="49"/>
+      <c r="E27" s="45"/>
       <c r="F27" s="10"/>
       <c r="G27" s="33"/>
     </row>
@@ -2230,7 +2218,7 @@
       <c r="D28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="49">
+      <c r="E28" s="45">
         <v>77636</v>
       </c>
       <c r="F28" s="10">
@@ -2249,7 +2237,7 @@
       <c r="D29" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="E29" s="49">
+      <c r="E29" s="45">
         <v>7183</v>
       </c>
       <c r="F29" s="10">
@@ -2262,7 +2250,7 @@
       <c r="B30" s="23"/>
       <c r="C30" s="21"/>
       <c r="D30" s="23"/>
-      <c r="E30" s="50"/>
+      <c r="E30" s="46"/>
       <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -2278,11 +2266,11 @@
       <c r="D31" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="49">
+      <c r="E31" s="45">
         <v>43821</v>
       </c>
       <c r="F31" s="10">
-        <f t="shared" ref="F31:F36" si="2">E31/$E$6</f>
+        <f t="shared" ref="F31:F49" si="2">E31/$E$6</f>
         <v>1.6714811242899037E-3</v>
       </c>
     </row>
@@ -2297,7 +2285,7 @@
       <c r="D32" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="49">
+      <c r="E32" s="45">
         <v>41477</v>
       </c>
       <c r="F32" s="10">
@@ -2316,7 +2304,7 @@
       <c r="D33" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="49">
+      <c r="E33" s="45">
         <v>115661</v>
       </c>
       <c r="F33" s="10">
@@ -2335,7 +2323,7 @@
       <c r="D34" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="49">
+      <c r="E34" s="45">
         <v>357858</v>
       </c>
       <c r="F34" s="10">
@@ -2354,7 +2342,7 @@
       <c r="D35" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="49">
+      <c r="E35" s="45">
         <v>254128</v>
       </c>
       <c r="F35" s="10">
@@ -2373,7 +2361,7 @@
       <c r="D36" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="49">
+      <c r="E36" s="45">
         <v>28686</v>
       </c>
       <c r="F36" s="10">
@@ -2386,232 +2374,241 @@
       <c r="B37" s="20"/>
       <c r="C37" s="21"/>
       <c r="D37" s="21"/>
-      <c r="E37" s="50"/>
+      <c r="E37" s="46"/>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="24" t="s">
-        <v>360</v>
+      <c r="A38" s="51" t="s">
+        <v>330</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>338</v>
+        <v>279</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>240</v>
+        <v>152</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="E38" s="49">
-        <v>32303</v>
+        <v>277</v>
+      </c>
+      <c r="E38" s="45">
+        <v>137173</v>
       </c>
       <c r="F38" s="10">
-        <f t="shared" ref="F38:F44" si="3">E38/$E$6</f>
-        <v>1.2321456552323489E-3</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>379</v>
+        <f t="shared" si="2"/>
+        <v>5.2322420817009869E-3</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="24"/>
       <c r="B39" s="7" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="E39" s="49">
-        <v>31229</v>
+        <v>170</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E39" s="45">
+        <v>39736</v>
       </c>
       <c r="F39" s="10">
-        <f t="shared" si="3"/>
-        <v>1.1911796634136466E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.5156654105288245E-3</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="24"/>
       <c r="B40" s="7" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="E40" s="49">
-        <v>55750</v>
+        <v>46</v>
+      </c>
+      <c r="E40" s="45">
+        <v>62508</v>
       </c>
       <c r="F40" s="10">
-        <f t="shared" si="3"/>
-        <v>2.1264935231775205E-3</v>
+        <f t="shared" si="2"/>
+        <v>2.3842664959063762E-3</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="24"/>
       <c r="B41" s="7" t="s">
-        <v>336</v>
+        <v>281</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E41" s="49">
-        <v>62395</v>
+        <v>180</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E41" s="45">
+        <v>30223</v>
       </c>
       <c r="F41" s="10">
-        <f t="shared" si="3"/>
-        <v>2.3799562937876486E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.1528074215424969E-3</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="24"/>
       <c r="B42" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E42" s="49">
-        <v>33968</v>
+        <v>47</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="45">
+        <v>29860</v>
       </c>
       <c r="F42" s="10">
-        <f t="shared" si="3"/>
-        <v>1.2956543855658119E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.1389613740283545E-3</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="24"/>
       <c r="B43" s="7" t="s">
-        <v>304</v>
+        <v>2</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E43" s="49">
-        <v>33642</v>
+        <v>2</v>
+      </c>
+      <c r="E43" s="45">
+        <v>39033</v>
       </c>
       <c r="F43" s="10">
-        <f t="shared" si="3"/>
-        <v>1.2832196431701911E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.4888506132769176E-3</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="24"/>
       <c r="B44" s="7" t="s">
-        <v>341</v>
+        <v>282</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>168</v>
+        <v>49</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="E44" s="49">
-        <v>44003</v>
+        <v>50</v>
+      </c>
+      <c r="E44" s="45">
+        <v>37402</v>
       </c>
       <c r="F44" s="10">
-        <f t="shared" si="3"/>
-        <v>1.6784232197377658E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.426638757917231E-3</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="25"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="22"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="45">
+        <v>252718</v>
+      </c>
+      <c r="F45" s="10">
+        <f t="shared" si="2"/>
+        <v>9.6395191065538413E-3</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="24" t="s">
-        <v>247</v>
-      </c>
+      <c r="A46" s="24"/>
       <c r="B46" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E46" s="49">
-        <v>268358</v>
+        <v>7</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="45">
+        <f>288078+123344</f>
+        <v>411422</v>
       </c>
       <c r="F46" s="10">
-        <f>E46/$E$6</f>
-        <v>1.0236081594490997E-2</v>
-      </c>
-      <c r="G46" s="3"/>
+        <f t="shared" si="2"/>
+        <v>1.5693026337089543E-2</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="24"/>
       <c r="B47" s="7" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E47" s="49">
-        <v>1649093</v>
+        <v>51</v>
+      </c>
+      <c r="E47" s="45">
+        <v>266838</v>
       </c>
       <c r="F47" s="10">
-        <f>E47/$E$6</f>
-        <v>6.2901983562643718E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.0178103654486875E-2</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="24"/>
       <c r="B48" s="7" t="s">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>158</v>
+        <v>43</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E48" s="49">
-        <v>91421</v>
+        <v>44</v>
+      </c>
+      <c r="E48" s="45">
+        <v>69064</v>
       </c>
       <c r="F48" s="10">
-        <f>E48/$E$6</f>
-        <v>3.4871060875768991E-3</v>
+        <f t="shared" si="2"/>
+        <v>2.6343345055557361E-3</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="24"/>
       <c r="B49" s="7" t="s">
-        <v>302</v>
+        <v>42</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E49" s="49">
-        <v>107457</v>
+        <v>42</v>
+      </c>
+      <c r="E49" s="45">
+        <v>342095</v>
       </c>
       <c r="F49" s="10">
-        <f>E49/$E$6</f>
-        <v>4.0987733546203921E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.3048660122177829E-2</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -2619,1786 +2616,1814 @@
       <c r="B50" s="20"/>
       <c r="C50" s="21"/>
       <c r="D50" s="21"/>
-      <c r="E50" s="50"/>
+      <c r="E50" s="46"/>
       <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="24" t="s">
-        <v>242</v>
+        <v>360</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>163</v>
+        <v>240</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="E51" s="49">
-        <v>67506</v>
+        <v>339</v>
+      </c>
+      <c r="E51" s="45">
+        <v>32303</v>
       </c>
       <c r="F51" s="10">
-        <f t="shared" ref="F51:F59" si="4">E51/$E$6</f>
-        <v>2.5749071170515104E-3</v>
+        <f t="shared" ref="F51:F57" si="3">E51/$E$6</f>
+        <v>1.2321456552323489E-3</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="24"/>
       <c r="B52" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="E52" s="49">
-        <v>127061</v>
+        <v>178</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E52" s="45">
+        <v>31229</v>
       </c>
       <c r="F52" s="10">
-        <f t="shared" si="4"/>
-        <v>4.8465362071472458E-3</v>
+        <f t="shared" si="3"/>
+        <v>1.1911796634136466E-3</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="24"/>
-      <c r="B53" s="4" t="s">
-        <v>298</v>
+      <c r="B53" s="7" t="s">
+        <v>340</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>59</v>
+        <v>166</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E53" s="49">
-        <v>502074</v>
+        <v>213</v>
+      </c>
+      <c r="E53" s="45">
+        <v>55750</v>
       </c>
       <c r="F53" s="10">
-        <f t="shared" si="4"/>
-        <v>1.9150800164230142E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.1264935231775205E-3</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="24"/>
       <c r="B54" s="7" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="E54" s="49">
-        <v>33014</v>
+        <v>164</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E54" s="45">
+        <v>62395</v>
       </c>
       <c r="F54" s="10">
-        <f t="shared" si="4"/>
-        <v>1.2592655995369089E-3</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>380</v>
+        <f t="shared" si="3"/>
+        <v>2.3799562937876486E-3</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="24"/>
       <c r="B55" s="7" t="s">
-        <v>352</v>
+        <v>303</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="E55" s="49">
-        <v>204663</v>
+        <v>144</v>
+      </c>
+      <c r="E55" s="45">
+        <v>33968</v>
       </c>
       <c r="F55" s="10">
-        <f t="shared" si="4"/>
-        <v>7.8065389046471914E-3</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>381</v>
+        <f t="shared" si="3"/>
+        <v>1.2956543855658119E-3</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="24"/>
       <c r="B56" s="7" t="s">
-        <v>347</v>
+        <v>304</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="E56" s="49">
-        <v>38284</v>
+        <v>146</v>
+      </c>
+      <c r="E56" s="45">
+        <v>33642</v>
       </c>
       <c r="F56" s="10">
-        <f t="shared" si="4"/>
-        <v>1.4602812204722547E-3</v>
+        <f t="shared" si="3"/>
+        <v>1.2832196431701911E-3</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="24"/>
       <c r="B57" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="E57" s="49">
-        <v>57440</v>
+        <v>337</v>
+      </c>
+      <c r="E57" s="45">
+        <v>44003</v>
       </c>
       <c r="F57" s="10">
-        <f t="shared" si="4"/>
-        <v>2.1909558380505253E-3</v>
+        <f t="shared" si="3"/>
+        <v>1.6784232197377658E-3</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="24"/>
-      <c r="B58" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="E58" s="49">
-        <v>32488</v>
-      </c>
-      <c r="F58" s="10">
-        <f t="shared" si="4"/>
-        <v>1.2392021808249559E-3</v>
-      </c>
+      <c r="A58" s="25"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="24"/>
+      <c r="A59" s="24" t="s">
+        <v>247</v>
+      </c>
       <c r="B59" s="7" t="s">
-        <v>343</v>
+        <v>299</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>169</v>
+        <v>57</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="E59" s="49">
-        <v>43888</v>
+        <v>58</v>
+      </c>
+      <c r="E59" s="45">
+        <v>268358</v>
       </c>
       <c r="F59" s="10">
-        <f t="shared" si="4"/>
-        <v>1.674036730855875E-3</v>
-      </c>
+        <f>E59/$E$6</f>
+        <v>1.0236081594490997E-2</v>
+      </c>
+      <c r="G59" s="3"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="25"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="22"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E60" s="45">
+        <v>1649093</v>
+      </c>
+      <c r="F60" s="10">
+        <f>E60/$E$6</f>
+        <v>6.2901983562643718E-2</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="24" t="s">
-        <v>246</v>
-      </c>
+      <c r="A61" s="24"/>
       <c r="B61" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="49">
-        <v>1173537</v>
+        <v>158</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E61" s="45">
+        <v>91421</v>
       </c>
       <c r="F61" s="10">
-        <f t="shared" ref="F61:F66" si="5">E61/$E$6</f>
-        <v>4.4762669591196021E-2</v>
+        <f>E61/$E$6</f>
+        <v>3.4871060875768991E-3</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="24"/>
       <c r="B62" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>176</v>
+        <v>23</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="E62" s="49">
-        <v>31622</v>
+        <v>24</v>
+      </c>
+      <c r="E62" s="45">
+        <v>107457</v>
       </c>
       <c r="F62" s="10">
-        <f t="shared" si="5"/>
-        <v>1.2061700123752388E-3</v>
-      </c>
-      <c r="G62" s="3"/>
+        <f>E62/$E$6</f>
+        <v>4.0987733546203921E-3</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="24"/>
-      <c r="B63" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" s="49">
-        <v>149503</v>
-      </c>
-      <c r="F63" s="10">
-        <f t="shared" si="5"/>
-        <v>5.7025499766028501E-3</v>
-      </c>
+      <c r="A63" s="25"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="46"/>
+      <c r="F63" s="22"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="24"/>
+      <c r="A64" s="24" t="s">
+        <v>242</v>
+      </c>
       <c r="B64" s="7" t="s">
-        <v>138</v>
+        <v>346</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E64" s="49">
-        <v>34571</v>
+        <v>163</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="E64" s="45">
+        <v>67506</v>
       </c>
       <c r="F64" s="10">
-        <f t="shared" si="5"/>
-        <v>1.3186548446595529E-3</v>
+        <f t="shared" ref="F64:F72" si="4">E64/$E$6</f>
+        <v>2.5749071170515104E-3</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="24"/>
       <c r="B65" s="7" t="s">
-        <v>297</v>
+        <v>345</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E65" s="49">
-        <v>411883</v>
+        <v>153</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E65" s="45">
+        <v>127061</v>
       </c>
       <c r="F65" s="10">
-        <f t="shared" si="5"/>
-        <v>1.5710610435998685E-2</v>
+        <f t="shared" si="4"/>
+        <v>4.8465362071472458E-3</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="24"/>
-      <c r="B66" s="7" t="s">
-        <v>293</v>
+      <c r="B66" s="4" t="s">
+        <v>298</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E66" s="49">
-        <v>86163</v>
+        <v>60</v>
+      </c>
+      <c r="E66" s="45">
+        <v>502074</v>
       </c>
       <c r="F66" s="10">
-        <f t="shared" si="5"/>
-        <v>3.2865481872205332E-3</v>
-      </c>
-      <c r="G66" s="3"/>
+        <f t="shared" si="4"/>
+        <v>1.9150800164230142E-2</v>
+      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="25"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="50"/>
-      <c r="F67" s="22"/>
+      <c r="A67" s="24"/>
+      <c r="B67" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="E67" s="45">
+        <v>33014</v>
+      </c>
+      <c r="F67" s="10">
+        <f t="shared" si="4"/>
+        <v>1.2592655995369089E-3</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="24" t="s">
-        <v>61</v>
-      </c>
+      <c r="A68" s="24"/>
       <c r="B68" s="7" t="s">
-        <v>290</v>
+        <v>352</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>55</v>
+        <v>186</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E68" s="49">
-        <v>139389</v>
+        <v>201</v>
+      </c>
+      <c r="E68" s="45">
+        <v>204663</v>
       </c>
       <c r="F68" s="10">
-        <f>E68/$E$6</f>
-        <v>5.3167678152859447E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.8065389046471914E-3</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="24"/>
       <c r="B69" s="7" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E69" s="49">
-        <v>303885</v>
+        <v>172</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E69" s="45">
+        <v>38284</v>
       </c>
       <c r="F69" s="10">
-        <f>E69/$E$6</f>
-        <v>1.1591201511942616E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.4602812204722547E-3</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="24"/>
       <c r="B70" s="7" t="s">
-        <v>66</v>
+        <v>351</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E70" s="49">
-        <v>2826868</v>
+        <v>165</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E70" s="45">
+        <v>57440</v>
       </c>
       <c r="F70" s="10">
-        <f>E70/$E$6</f>
-        <v>0.1078263048049828</v>
+        <f t="shared" si="4"/>
+        <v>2.1909558380505253E-3</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="25"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="50"/>
-      <c r="F71" s="22"/>
+      <c r="A71" s="24"/>
+      <c r="B71" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E71" s="45">
+        <v>32488</v>
+      </c>
+      <c r="F71" s="10">
+        <f t="shared" si="4"/>
+        <v>1.2392021808249559E-3</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="24" t="s">
-        <v>244</v>
-      </c>
+      <c r="A72" s="24"/>
       <c r="B72" s="7" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E72" s="49">
-        <v>251830</v>
+        <v>169</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E72" s="45">
+        <v>43888</v>
       </c>
       <c r="F72" s="10">
-        <f t="shared" ref="F72:F78" si="6">E72/$E$6</f>
-        <v>9.6056477837093285E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.674036730855875E-3</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="24"/>
-      <c r="B73" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E73" s="49">
-        <v>208907</v>
-      </c>
-      <c r="F73" s="10">
-        <f t="shared" si="6"/>
-        <v>7.9684194160797549E-3</v>
-      </c>
-      <c r="G73" s="3"/>
+      <c r="A73" s="25"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="22"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="24"/>
-      <c r="B74" s="4" t="s">
-        <v>22</v>
+      <c r="A74" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>296</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E74" s="49">
-        <v>27813</v>
+        <v>11</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="45">
+        <v>1173537</v>
       </c>
       <c r="F74" s="10">
-        <f t="shared" si="6"/>
-        <v>1.0608818719306974E-3</v>
+        <f t="shared" ref="F74:F79" si="5">E74/$E$6</f>
+        <v>4.4762669591196021E-2</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="27"/>
-      <c r="B75" s="17" t="s">
-        <v>292</v>
+      <c r="A75" s="24"/>
+      <c r="B75" s="7" t="s">
+        <v>294</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E75" s="49">
-        <v>417570</v>
+        <v>176</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E75" s="45">
+        <v>31622</v>
       </c>
       <c r="F75" s="10">
-        <f t="shared" si="6"/>
-        <v>1.5927531847053585E-2</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>1.2061700123752388E-3</v>
+      </c>
+      <c r="G75" s="3"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="24"/>
       <c r="B76" s="7" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>181</v>
+        <v>13</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="E76" s="49">
-        <v>29580</v>
+        <v>14</v>
+      </c>
+      <c r="E76" s="45">
+        <v>149503</v>
       </c>
       <c r="F76" s="10">
-        <f t="shared" si="6"/>
-        <v>1.1282812271854899E-3</v>
-      </c>
-      <c r="G76" s="3"/>
+        <f t="shared" si="5"/>
+        <v>5.7025499766028501E-3</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="24"/>
       <c r="B77" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E77" s="49">
-        <v>50962</v>
+        <v>140</v>
+      </c>
+      <c r="E77" s="45">
+        <v>34571</v>
       </c>
       <c r="F77" s="10">
-        <f t="shared" si="6"/>
-        <v>1.9438630121645347E-3</v>
+        <f t="shared" si="5"/>
+        <v>1.3186548446595529E-3</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="24"/>
       <c r="B78" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E78" s="45">
+        <v>411883</v>
+      </c>
+      <c r="F78" s="10">
+        <f t="shared" si="5"/>
+        <v>1.5710610435998685E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="24"/>
+      <c r="B79" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E79" s="45">
+        <v>86163</v>
+      </c>
+      <c r="F79" s="10">
+        <f t="shared" si="5"/>
+        <v>3.2865481872205332E-3</v>
+      </c>
+      <c r="G79" s="3"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="25"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="46"/>
+      <c r="F80" s="22"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E81" s="45">
+        <v>139389</v>
+      </c>
+      <c r="F81" s="10">
+        <f>E81/$E$6</f>
+        <v>5.3167678152859447E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="24"/>
+      <c r="B82" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E82" s="45">
+        <v>303885</v>
+      </c>
+      <c r="F82" s="10">
+        <f>E82/$E$6</f>
+        <v>1.1591201511942616E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="24"/>
+      <c r="B83" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E83" s="45">
+        <v>2826868</v>
+      </c>
+      <c r="F83" s="10">
+        <f>E83/$E$6</f>
+        <v>0.1078263048049828</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="25"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="22"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E85" s="45">
+        <v>251830</v>
+      </c>
+      <c r="F85" s="10">
+        <f t="shared" ref="F85:F91" si="6">E85/$E$6</f>
+        <v>9.6056477837093285E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="24"/>
+      <c r="B86" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="45">
+        <v>208907</v>
+      </c>
+      <c r="F86" s="10">
+        <f t="shared" si="6"/>
+        <v>7.9684194160797549E-3</v>
+      </c>
+      <c r="G86" s="3"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="24"/>
+      <c r="B87" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E87" s="45">
+        <v>27813</v>
+      </c>
+      <c r="F87" s="10">
+        <f t="shared" si="6"/>
+        <v>1.0608818719306974E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="27"/>
+      <c r="B88" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88" s="45">
+        <v>417570</v>
+      </c>
+      <c r="F88" s="10">
+        <f t="shared" si="6"/>
+        <v>1.5927531847053585E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="24"/>
+      <c r="B89" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E89" s="45">
+        <v>29580</v>
+      </c>
+      <c r="F89" s="10">
+        <f t="shared" si="6"/>
+        <v>1.1282812271854899E-3</v>
+      </c>
+      <c r="G89" s="3"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="24"/>
+      <c r="B90" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E90" s="45">
+        <v>50962</v>
+      </c>
+      <c r="F90" s="10">
+        <f t="shared" si="6"/>
+        <v>1.9438630121645347E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="24"/>
+      <c r="B91" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C91" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D91" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="E78" s="49">
+      <c r="E91" s="45">
         <v>28238</v>
       </c>
-      <c r="F78" s="10">
+      <c r="F91" s="10">
         <f t="shared" si="6"/>
         <v>1.0770928091029027E-3</v>
       </c>
-      <c r="G78" s="3"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="25"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="50"/>
-      <c r="F79" s="22"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="24" t="s">
-        <v>356</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E80" s="49">
-        <v>32286</v>
-      </c>
-      <c r="F80" s="10">
-        <f t="shared" ref="F80:F86" si="7">E80/$E$6</f>
-        <v>1.2314972177454606E-3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="24"/>
-      <c r="B81" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E81" s="49">
-        <v>206556</v>
-      </c>
-      <c r="F81" s="10">
-        <f t="shared" si="7"/>
-        <v>7.8787443259812732E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="24"/>
-      <c r="B82" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E82" s="49">
-        <v>25452</v>
-      </c>
-      <c r="F82" s="10">
-        <f t="shared" si="7"/>
-        <v>9.7082534801639926E-4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="24"/>
-      <c r="B83" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E83" s="49">
-        <v>51992</v>
-      </c>
-      <c r="F83" s="10">
-        <f t="shared" si="7"/>
-        <v>1.9831506951936439E-3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="24"/>
-      <c r="B84" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E84" s="49">
-        <v>41106</v>
-      </c>
-      <c r="F84" s="10">
-        <f t="shared" si="7"/>
-        <v>1.5679218432956979E-3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="24"/>
-      <c r="B85" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="D85" s="30" t="s">
-        <v>354</v>
-      </c>
-      <c r="E85" s="49">
-        <v>68730</v>
-      </c>
-      <c r="F85" s="10">
-        <f t="shared" si="7"/>
-        <v>2.621594616107462E-3</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="24"/>
-      <c r="B86" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E86" s="49">
-        <v>114328</v>
-      </c>
-      <c r="F86" s="10">
-        <f t="shared" si="7"/>
-        <v>4.3608565294679744E-3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="25"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="50"/>
-      <c r="F87" s="22"/>
-    </row>
-    <row r="88" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B88" s="38" t="s">
-        <v>365</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E88" s="49">
-        <f>575002</f>
-        <v>575002</v>
-      </c>
-      <c r="F88" s="10">
-        <f>E88/$E$6</f>
-        <v>2.1932520696217414E-2</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="24"/>
-      <c r="B89" s="38" t="s">
-        <v>366</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="E89" s="49">
-        <v>48466</v>
-      </c>
-      <c r="F89" s="10">
-        <f>E89/$E$6</f>
-        <v>1.8486571317367123E-3</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="24"/>
-      <c r="B90" s="38" t="s">
-        <v>364</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="E90" s="49">
-        <v>41185</v>
-      </c>
-      <c r="F90" s="10">
-        <f>E90/$E$6</f>
-        <v>1.5709351704406491E-3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="24"/>
-      <c r="B91" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="E91" s="49">
-        <f>497965+137602</f>
-        <v>635567</v>
-      </c>
-      <c r="F91" s="10">
-        <f>E91/$E$6</f>
-        <v>2.4242674601710625E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G91" s="3"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="25"/>
       <c r="B92" s="20"/>
       <c r="C92" s="21"/>
       <c r="D92" s="21"/>
-      <c r="E92" s="50"/>
+      <c r="E92" s="46"/>
       <c r="F92" s="22"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="24" t="s">
-        <v>87</v>
+        <v>356</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>210</v>
+        <v>289</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="E93" s="49">
-        <v>67871</v>
+        <v>220</v>
+      </c>
+      <c r="E93" s="45">
+        <v>32286</v>
       </c>
       <c r="F93" s="10">
-        <f t="shared" ref="F93:F109" si="8">E93/$E$6</f>
-        <v>2.5888294513288163E-3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ref="F93:F99" si="7">E93/$E$6</f>
+        <v>1.2314972177454606E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="24"/>
       <c r="B94" s="7" t="s">
-        <v>315</v>
+        <v>71</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E94" s="49">
-        <v>606167</v>
+        <v>73</v>
+      </c>
+      <c r="E94" s="45">
+        <v>206556</v>
       </c>
       <c r="F94" s="10">
-        <f t="shared" si="8"/>
-        <v>2.3121259183209834E-2</v>
-      </c>
-      <c r="H94" s="13"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>7.8787443259812732E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="24"/>
       <c r="B95" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="E95" s="49">
-        <v>240532</v>
+        <v>74</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E95" s="45">
+        <v>25452</v>
       </c>
       <c r="F95" s="10">
-        <f t="shared" si="8"/>
-        <v>9.1747038585997375E-3</v>
-      </c>
-      <c r="H95" s="1"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>9.7082534801639926E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="24"/>
       <c r="B96" s="7" t="s">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="E96" s="49">
-        <v>913947</v>
+        <v>79</v>
+      </c>
+      <c r="E96" s="45">
+        <v>51992</v>
       </c>
       <c r="F96" s="10">
-        <f t="shared" si="8"/>
-        <v>3.486102916641301E-2</v>
-      </c>
-      <c r="H96" s="1"/>
+        <f t="shared" si="7"/>
+        <v>1.9831506951936439E-3</v>
+      </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="24"/>
       <c r="B97" s="7" t="s">
-        <v>308</v>
+        <v>81</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E97" s="49">
-        <v>45073</v>
+        <v>81</v>
+      </c>
+      <c r="E97" s="45">
+        <v>41106</v>
       </c>
       <c r="F97" s="10">
-        <f t="shared" si="8"/>
-        <v>1.7192366380301416E-3</v>
-      </c>
-      <c r="H97" s="1"/>
+        <f t="shared" si="7"/>
+        <v>1.5679218432956979E-3</v>
+      </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="24"/>
       <c r="B98" s="7" t="s">
-        <v>307</v>
+        <v>357</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E98" s="49">
-        <v>31288</v>
+        <v>355</v>
+      </c>
+      <c r="D98" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="E98" s="45">
+        <v>68730</v>
       </c>
       <c r="F98" s="10">
-        <f t="shared" si="8"/>
-        <v>1.1934301229269645E-3</v>
-      </c>
-      <c r="H98" s="1"/>
+        <f t="shared" si="7"/>
+        <v>2.621594616107462E-3</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="24"/>
       <c r="B99" s="7" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E99" s="49">
-        <v>470937</v>
+        <v>82</v>
+      </c>
+      <c r="E99" s="45">
+        <v>114328</v>
       </c>
       <c r="F99" s="10">
-        <f t="shared" si="8"/>
-        <v>1.7963129691922011E-2</v>
-      </c>
-      <c r="H99" s="1"/>
+        <f t="shared" si="7"/>
+        <v>4.3608565294679744E-3</v>
+      </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="24"/>
-      <c r="B100" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E100" s="49">
-        <v>52948</v>
-      </c>
-      <c r="F100" s="10">
-        <f t="shared" si="8"/>
-        <v>2.0196157679857104E-3</v>
-      </c>
-      <c r="G100" s="2" t="s">
+      <c r="A100" s="25"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="46"/>
+      <c r="F100" s="22"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B101" s="49" t="s">
+        <v>392</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="E101" s="50"/>
+      <c r="F101" s="48"/>
+      <c r="G101" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="2"/>
+      <c r="B102" s="38" t="s">
+        <v>365</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E102" s="45">
+        <f>575002</f>
+        <v>575002</v>
+      </c>
+      <c r="F102" s="10">
+        <f>E102/$E$6</f>
+        <v>2.1932520696217414E-2</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="H100" s="13"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="24"/>
-      <c r="B101" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E101" s="49">
-        <v>33513</v>
-      </c>
-      <c r="F101" s="10">
-        <f t="shared" si="8"/>
-        <v>1.278299146946157E-3</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="24"/>
-      <c r="B102" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E102" s="49">
-        <f>101612+321711</f>
-        <v>423323</v>
-      </c>
-      <c r="F102" s="10">
-        <f t="shared" si="8"/>
-        <v>1.6146970721292873E-2</v>
-      </c>
-      <c r="G102" s="32" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="24"/>
-      <c r="B103" s="7" t="s">
-        <v>314</v>
+      <c r="B103" s="38" t="s">
+        <v>366</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D103" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="E103" s="49">
-        <v>36064</v>
+        <v>358</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="E103" s="45">
+        <v>48466</v>
       </c>
       <c r="F103" s="10">
-        <f t="shared" si="8"/>
-        <v>1.3756029133609705E-3</v>
+        <f>E103/$E$6</f>
+        <v>1.8486571317367123E-3</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="24"/>
-      <c r="B104" s="7" t="s">
-        <v>312</v>
+      <c r="B104" s="38" t="s">
+        <v>364</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D104" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="E104" s="49">
-        <v>79601</v>
+        <v>370</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="E104" s="45">
+        <v>41185</v>
       </c>
       <c r="F104" s="10">
-        <f t="shared" si="8"/>
-        <v>3.0362513172816829E-3</v>
+        <f>E104/$E$6</f>
+        <v>1.5709351704406491E-3</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="24"/>
-      <c r="B105" s="17" t="s">
-        <v>367</v>
+      <c r="B105" s="18" t="s">
+        <v>318</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>193</v>
+        <v>150</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="E105" s="49">
-        <v>35267</v>
+        <v>200</v>
+      </c>
+      <c r="E105" s="45">
+        <f>497965+137602</f>
+        <v>635567</v>
       </c>
       <c r="F105" s="10">
-        <f t="shared" si="8"/>
-        <v>1.3452026382403878E-3</v>
+        <f>E105/$E$6</f>
+        <v>2.4242674601710625E-2</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="24"/>
-      <c r="B106" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E106" s="49">
-        <v>2200662</v>
-      </c>
-      <c r="F106" s="10">
-        <f t="shared" si="8"/>
-        <v>8.3940690398258105E-2</v>
-      </c>
+      <c r="A106" s="25"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="46"/>
+      <c r="F106" s="22"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="24"/>
+      <c r="A107" s="24" t="s">
+        <v>87</v>
+      </c>
       <c r="B107" s="7" t="s">
-        <v>265</v>
+        <v>210</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E107" s="49">
-        <v>106432</v>
+        <v>210</v>
+      </c>
+      <c r="E107" s="45">
+        <v>67871</v>
       </c>
       <c r="F107" s="10">
-        <f t="shared" si="8"/>
-        <v>4.0596763884991911E-3</v>
+        <f t="shared" ref="F107:F123" si="8">E107/$E$6</f>
+        <v>2.5888294513288163E-3</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="24"/>
       <c r="B108" s="7" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E108" s="49">
-        <v>33915</v>
+        <v>199</v>
+      </c>
+      <c r="E108" s="45">
+        <v>606167</v>
       </c>
       <c r="F108" s="10">
         <f t="shared" si="8"/>
-        <v>1.293632786341984E-3</v>
-      </c>
+        <v>2.3121259183209834E-2</v>
+      </c>
+      <c r="H108" s="13"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="24"/>
       <c r="B109" s="7" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="E109" s="49">
-        <v>35635</v>
+        <v>250</v>
+      </c>
+      <c r="E109" s="45">
+        <v>240532</v>
       </c>
       <c r="F109" s="10">
         <f t="shared" si="8"/>
-        <v>1.3592394026624385E-3</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>388</v>
-      </c>
+        <v>9.1747038585997375E-3</v>
+      </c>
+      <c r="H109" s="1"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="25"/>
-      <c r="B110" s="20"/>
-      <c r="C110" s="21"/>
-      <c r="D110" s="21"/>
-      <c r="E110" s="50"/>
-      <c r="F110" s="22"/>
+      <c r="A110" s="24"/>
+      <c r="B110" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E110" s="45">
+        <v>913947</v>
+      </c>
+      <c r="F110" s="10">
+        <f t="shared" si="8"/>
+        <v>3.486102916641301E-2</v>
+      </c>
+      <c r="H110" s="1"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="24" t="s">
-        <v>330</v>
-      </c>
+      <c r="A111" s="24"/>
       <c r="B111" s="7" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="E111" s="49">
-        <v>137173</v>
+        <v>100</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E111" s="45">
+        <v>45073</v>
       </c>
       <c r="F111" s="10">
-        <f t="shared" ref="F111:F122" si="9">E111/$E$6</f>
-        <v>5.2322420817009869E-3</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>1.7192366380301416E-3</v>
+      </c>
+      <c r="H111" s="1"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="24"/>
       <c r="B112" s="7" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="E112" s="49">
-        <v>39736</v>
+        <v>177</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E112" s="45">
+        <v>31288</v>
       </c>
       <c r="F112" s="10">
-        <f t="shared" si="9"/>
-        <v>1.5156654105288245E-3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>1.1934301229269645E-3</v>
+      </c>
+      <c r="H112" s="1"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="24"/>
       <c r="B113" s="7" t="s">
-        <v>283</v>
+        <v>102</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E113" s="49">
-        <v>62508</v>
+        <v>102</v>
+      </c>
+      <c r="E113" s="45">
+        <v>470937</v>
       </c>
       <c r="F113" s="10">
-        <f t="shared" si="9"/>
-        <v>2.3842664959063762E-3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>1.7963129691922011E-2</v>
+      </c>
+      <c r="H113" s="1"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="24"/>
       <c r="B114" s="7" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="E114" s="49">
-        <v>30223</v>
+        <v>188</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E114" s="45">
+        <v>52948</v>
       </c>
       <c r="F114" s="10">
-        <f t="shared" si="9"/>
-        <v>1.1528074215424969E-3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>2.0196157679857104E-3</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="H114" s="13"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="24"/>
       <c r="B115" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E115" s="49">
-        <v>29860</v>
+        <v>311</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E115" s="45">
+        <v>33513</v>
       </c>
       <c r="F115" s="10">
-        <f t="shared" si="9"/>
-        <v>1.1389613740283545E-3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>1.278299146946157E-3</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="24"/>
       <c r="B116" s="7" t="s">
-        <v>2</v>
+        <v>316</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E116" s="49">
-        <v>39033</v>
+        <v>206</v>
+      </c>
+      <c r="E116" s="45">
+        <f>101612+321711</f>
+        <v>423323</v>
       </c>
       <c r="F116" s="10">
-        <f t="shared" si="9"/>
-        <v>1.4888506132769176E-3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>1.6146970721292873E-2</v>
+      </c>
+      <c r="G116" s="32" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="24"/>
       <c r="B117" s="7" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E117" s="49">
-        <v>37402</v>
+        <v>173</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="E117" s="45">
+        <v>36064</v>
       </c>
       <c r="F117" s="10">
-        <f t="shared" si="9"/>
-        <v>1.426638757917231E-3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>1.3756029133609705E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="24"/>
       <c r="B118" s="7" t="s">
-        <v>4</v>
+        <v>312</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E118" s="49">
-        <v>252718</v>
+        <v>159</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E118" s="45">
+        <v>79601</v>
       </c>
       <c r="F118" s="10">
-        <f t="shared" si="9"/>
-        <v>9.6395191065538413E-3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>3.0362513172816829E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="24"/>
-      <c r="B119" s="7" t="s">
-        <v>305</v>
+      <c r="B119" s="17" t="s">
+        <v>367</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>7</v>
+        <v>193</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E119" s="49">
-        <f>288078+123344</f>
-        <v>411422</v>
+        <v>218</v>
+      </c>
+      <c r="E119" s="45">
+        <v>35267</v>
       </c>
       <c r="F119" s="10">
-        <f t="shared" si="9"/>
-        <v>1.5693026337089543E-2</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>1.3452026382403878E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="24"/>
       <c r="B120" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E120" s="49">
-        <v>266838</v>
+        <v>110</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E120" s="45">
+        <v>2200662</v>
       </c>
       <c r="F120" s="10">
-        <f t="shared" si="9"/>
-        <v>1.0178103654486875E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>8.3940690398258105E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="24"/>
       <c r="B121" s="7" t="s">
-        <v>44</v>
+        <v>265</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E121" s="49">
-        <v>69064</v>
+        <v>107</v>
+      </c>
+      <c r="E121" s="45">
+        <v>106432</v>
       </c>
       <c r="F121" s="10">
-        <f t="shared" si="9"/>
-        <v>2.6343345055557361E-3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>4.0596763884991911E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="24"/>
       <c r="B122" s="7" t="s">
-        <v>42</v>
+        <v>288</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E122" s="49">
-        <v>342095</v>
+        <v>105</v>
+      </c>
+      <c r="E122" s="45">
+        <v>33915</v>
       </c>
       <c r="F122" s="10">
-        <f t="shared" si="9"/>
-        <v>1.3048660122177829E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" s="25"/>
-      <c r="B123" s="20"/>
-      <c r="C123" s="21"/>
-      <c r="D123" s="21"/>
-      <c r="E123" s="50"/>
-      <c r="F123" s="22"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" s="24" t="s">
+        <f t="shared" si="8"/>
+        <v>1.293632786341984E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" s="24"/>
+      <c r="B123" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E123" s="45">
+        <v>35635</v>
+      </c>
+      <c r="F123" s="10">
+        <f t="shared" si="8"/>
+        <v>1.3592394026624385E-3</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" s="25"/>
+      <c r="B124" s="20"/>
+      <c r="C124" s="21"/>
+      <c r="D124" s="21"/>
+      <c r="E124" s="46"/>
+      <c r="F124" s="22"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="B125" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C125" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D124" s="4" t="s">
+      <c r="D125" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E124" s="49">
+      <c r="E125" s="45">
         <v>31158</v>
       </c>
-      <c r="F124" s="10">
-        <f>E124/$E$6</f>
+      <c r="F125" s="10">
+        <f>E125/$E$6</f>
         <v>1.1884714833213486E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="25"/>
-      <c r="B125" s="20"/>
-      <c r="C125" s="21"/>
-      <c r="D125" s="21"/>
-      <c r="E125" s="50"/>
-      <c r="F125" s="22"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" s="24" t="s">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" s="25"/>
+      <c r="B126" s="20"/>
+      <c r="C126" s="21"/>
+      <c r="D126" s="21"/>
+      <c r="E126" s="46"/>
+      <c r="F126" s="22"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="B127" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C127" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D126" s="4" t="s">
+      <c r="D127" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="E126" s="49">
+      <c r="E127" s="45">
         <v>196026</v>
       </c>
-      <c r="F126" s="10">
-        <f t="shared" ref="F126:F139" si="10">E126/$E$6</f>
+      <c r="F127" s="10">
+        <f t="shared" ref="F127:F141" si="9">E127/$E$6</f>
         <v>7.4770945179263972E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A127" s="24"/>
-      <c r="B127" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="E127" s="49">
-        <v>29242</v>
-      </c>
-      <c r="F127" s="10">
-        <f t="shared" si="10"/>
-        <v>1.1153887642108889E-3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="24"/>
       <c r="B128" s="7" t="s">
-        <v>114</v>
+        <v>374</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>115</v>
+        <v>375</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E128" s="49">
-        <v>157009</v>
-      </c>
-      <c r="F128" s="10">
-        <f t="shared" si="10"/>
-        <v>5.9888541987547861E-3</v>
+        <v>376</v>
+      </c>
+      <c r="E128" s="45"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="2" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="24"/>
       <c r="B129" s="7" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E129" s="49">
-        <v>515088</v>
+        <v>182</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="E129" s="45">
+        <v>29242</v>
       </c>
       <c r="F129" s="10">
-        <f t="shared" si="10"/>
-        <v>1.9647198132133861E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.1153887642108889E-3</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="24"/>
       <c r="B130" s="7" t="s">
-        <v>215</v>
+        <v>114</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E130" s="49">
-        <v>41176</v>
+        <v>115</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E130" s="45">
+        <v>157009</v>
       </c>
       <c r="F130" s="10">
-        <f t="shared" si="10"/>
-        <v>1.5705918800064142E-3</v>
+        <f t="shared" si="9"/>
+        <v>5.9888541987547861E-3</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="24"/>
       <c r="B131" s="7" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E131" s="49">
-        <v>31942</v>
+        <v>117</v>
+      </c>
+      <c r="E131" s="45">
+        <v>515088</v>
       </c>
       <c r="F131" s="10">
-        <f t="shared" si="10"/>
-        <v>1.2183758944813697E-3</v>
+        <f t="shared" si="9"/>
+        <v>1.9647198132133861E-2</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="24"/>
       <c r="B132" s="7" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E132" s="49">
-        <v>29143</v>
+        <v>118</v>
+      </c>
+      <c r="E132" s="45">
+        <v>41176</v>
       </c>
       <c r="F132" s="10">
-        <f t="shared" si="10"/>
-        <v>1.1116125694343047E-3</v>
+        <f t="shared" si="9"/>
+        <v>1.5705918800064142E-3</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="24"/>
       <c r="B133" s="7" t="s">
-        <v>109</v>
+        <v>254</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E133" s="49">
-        <v>43080</v>
+        <v>221</v>
+      </c>
+      <c r="E133" s="45">
+        <v>31942</v>
       </c>
       <c r="F133" s="10">
-        <f t="shared" si="10"/>
-        <v>1.643216878537894E-3</v>
+        <f t="shared" si="9"/>
+        <v>1.2183758944813697E-3</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="24"/>
       <c r="B134" s="7" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>98</v>
+        <v>183</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E134" s="49">
-        <v>135868</v>
+        <v>237</v>
+      </c>
+      <c r="E134" s="45">
+        <v>29143</v>
       </c>
       <c r="F134" s="10">
-        <f t="shared" si="10"/>
-        <v>5.1824649687369218E-3</v>
+        <f t="shared" si="9"/>
+        <v>1.1116125694343047E-3</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="24"/>
       <c r="B135" s="7" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E135" s="49">
-        <v>31413</v>
+        <v>109</v>
+      </c>
+      <c r="E135" s="45">
+        <v>43080</v>
       </c>
       <c r="F135" s="10">
-        <f t="shared" si="10"/>
-        <v>1.1981980456246719E-3</v>
+        <f t="shared" si="9"/>
+        <v>1.643216878537894E-3</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="24"/>
       <c r="B136" s="7" t="s">
-        <v>122</v>
+        <v>255</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E136" s="49">
-        <v>41933</v>
+        <v>98</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E136" s="45">
+        <v>135868</v>
       </c>
       <c r="F136" s="10">
-        <f t="shared" si="10"/>
-        <v>1.5994664198637305E-3</v>
+        <f t="shared" si="9"/>
+        <v>5.1824649687369218E-3</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="24"/>
       <c r="B137" s="7" t="s">
-        <v>271</v>
+        <v>121</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="E137" s="49">
-        <v>124581</v>
+        <v>120</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E137" s="45">
+        <v>31413</v>
       </c>
       <c r="F137" s="10">
-        <f t="shared" si="10"/>
-        <v>4.7519406208247298E-3</v>
+        <f t="shared" si="9"/>
+        <v>1.1981980456246719E-3</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="24"/>
       <c r="B138" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E138" s="49">
-        <v>781781</v>
+        <v>122</v>
+      </c>
+      <c r="E138" s="45">
+        <v>41933</v>
       </c>
       <c r="F138" s="10">
-        <f t="shared" si="10"/>
-        <v>2.9819770996291396E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.5994664198637305E-3</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="24"/>
       <c r="B139" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E139" s="45">
+        <v>124581</v>
+      </c>
+      <c r="F139" s="10">
+        <f t="shared" si="9"/>
+        <v>4.7519406208247298E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" s="24"/>
+      <c r="B140" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E140" s="45">
+        <v>781781</v>
+      </c>
+      <c r="F140" s="10">
+        <f t="shared" si="9"/>
+        <v>2.9819770996291396E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" s="24"/>
+      <c r="B141" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="C141" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D139" s="4" t="s">
+      <c r="D141" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E139" s="49">
+      <c r="E141" s="45">
         <v>52097</v>
       </c>
-      <c r="F139" s="10">
-        <f t="shared" si="10"/>
+      <c r="F141" s="10">
+        <f t="shared" si="9"/>
         <v>1.9871557502597185E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A140" s="25"/>
-      <c r="B140" s="20"/>
-      <c r="C140" s="21"/>
-      <c r="D140" s="21"/>
-      <c r="E140" s="50"/>
-      <c r="F140" s="22"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A141" s="24" t="s">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" s="25"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="21"/>
+      <c r="D142" s="21"/>
+      <c r="E142" s="46"/>
+      <c r="F142" s="22"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B141" s="7" t="s">
+      <c r="B143" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="C143" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D141" s="9" t="s">
+      <c r="D143" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E141" s="49">
+      <c r="E143" s="45">
         <v>56886</v>
-      </c>
-      <c r="F141" s="10">
-        <f>E141/$E$6</f>
-        <v>2.1698244046542861E-3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" s="24"/>
-      <c r="B142" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="E142" s="49">
-        <f>79290+43508</f>
-        <v>122798</v>
-      </c>
-      <c r="F142" s="10">
-        <f>E142/$E$6</f>
-        <v>4.6839309714646312E-3</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A143" s="24"/>
-      <c r="B143" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E143" s="49">
-        <v>31670</v>
       </c>
       <c r="F143" s="10">
         <f>E143/$E$6</f>
-        <v>1.2080008946911583E-3</v>
+        <v>2.1698244046542861E-3</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="24"/>
       <c r="B144" s="7" t="s">
-        <v>130</v>
+        <v>268</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E144" s="49">
-        <v>39804</v>
+        <v>209</v>
+      </c>
+      <c r="E144" s="45">
+        <f>79290+43508</f>
+        <v>122798</v>
       </c>
       <c r="F144" s="10">
         <f>E144/$E$6</f>
-        <v>1.5182591604763773E-3</v>
+        <v>4.6839309714646312E-3</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="24"/>
       <c r="B145" s="7" t="s">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D145" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E145" s="49">
-        <v>29083</v>
+        <v>134</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E145" s="45">
+        <v>31670</v>
       </c>
       <c r="F145" s="10">
         <f>E145/$E$6</f>
+        <v>1.2080008946911583E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="24"/>
+      <c r="B146" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E146" s="45">
+        <v>39804</v>
+      </c>
+      <c r="F146" s="10">
+        <f>E146/$E$6</f>
+        <v>1.5182591604763773E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="24"/>
+      <c r="B147" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E147" s="45">
+        <v>29083</v>
+      </c>
+      <c r="F147" s="10">
+        <f>E147/$E$6</f>
         <v>1.1093239665394051E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F146" s="52">
-        <f>SUM(F8:F145)</f>
-        <v>0.90389305846907442</v>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F148" s="5">
+        <f>SUM(F8:F147)</f>
+        <v>0.90389305846907397</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A83:H89">
-    <sortCondition ref="A83"/>
+  <sortState ref="A96:H103">
+    <sortCondition ref="A96"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="32" orientation="portrait" r:id="rId1"/>
 </worksheet>
